--- a/crawl/file/train_gender.xlsx
+++ b/crawl/file/train_gender.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="기혼여성" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="미혼여성" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="기타" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="보고서" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -38214,4 +38215,117 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>분류</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>생존자수</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>사망자수</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>생존률</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>남성</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>81</v>
+      </c>
+      <c r="C2" t="n">
+        <v>436</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.67%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>기혼여성</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>99</v>
+      </c>
+      <c r="C3" t="n">
+        <v>26</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>79.20%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>미혼여성</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>127</v>
+      </c>
+      <c r="C4" t="n">
+        <v>55</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>93.38%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>기타</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>35</v>
+      </c>
+      <c r="C5" t="n">
+        <v>436</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>52.24%</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>